--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Acvrl1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H2">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I2">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J2">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N2">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O2">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P2">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q2">
-        <v>24.46409704949186</v>
+        <v>24.6382847911675</v>
       </c>
       <c r="R2">
-        <v>24.46409704949186</v>
+        <v>98.55313916467</v>
       </c>
       <c r="S2">
-        <v>0.01286081714436269</v>
+        <v>0.01156500216065253</v>
       </c>
       <c r="T2">
-        <v>0.01286081714436269</v>
+        <v>0.007056326346420507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H3">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I3">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J3">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N3">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O3">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P3">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q3">
-        <v>9.868932780663583</v>
+        <v>10.479777083525</v>
       </c>
       <c r="R3">
-        <v>9.868932780663583</v>
+        <v>62.87866250114998</v>
       </c>
       <c r="S3">
-        <v>0.005188114633675287</v>
+        <v>0.004919118584812022</v>
       </c>
       <c r="T3">
-        <v>0.005188114633675287</v>
+        <v>0.004502062203144978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H4">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I4">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J4">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N4">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O4">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P4">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q4">
-        <v>8.048299348947291</v>
+        <v>8.508174889349998</v>
       </c>
       <c r="R4">
-        <v>8.048299348947291</v>
+        <v>51.0490493361</v>
       </c>
       <c r="S4">
-        <v>0.004231004563156534</v>
+        <v>0.003993665217061553</v>
       </c>
       <c r="T4">
-        <v>0.004231004563156534</v>
+        <v>0.003655071313235006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H5">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I5">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J5">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N5">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O5">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P5">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q5">
-        <v>9.922154520606091</v>
+        <v>10.28571563621166</v>
       </c>
       <c r="R5">
-        <v>9.922154520606091</v>
+        <v>61.71429381726999</v>
       </c>
       <c r="S5">
-        <v>0.005216093392266732</v>
+        <v>0.004828027785411789</v>
       </c>
       <c r="T5">
-        <v>0.005216093392266732</v>
+        <v>0.004418694331855954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H6">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I6">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J6">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N6">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O6">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P6">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q6">
-        <v>21.88950505802478</v>
+        <v>22.29871696389833</v>
       </c>
       <c r="R6">
-        <v>21.88950505802478</v>
+        <v>133.79230178339</v>
       </c>
       <c r="S6">
-        <v>0.01150734978537482</v>
+        <v>0.01046682884190508</v>
       </c>
       <c r="T6">
-        <v>0.01150734978537482</v>
+        <v>0.009579422350463485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H7">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I7">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J7">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N7">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O7">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P7">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q7">
-        <v>1.778974431490761</v>
+        <v>1.9572992844175</v>
       </c>
       <c r="R7">
-        <v>1.778974431490761</v>
+        <v>7.829197137669999</v>
       </c>
       <c r="S7">
-        <v>0.000935209863728629</v>
+        <v>0.0009187397030757108</v>
       </c>
       <c r="T7">
-        <v>0.000935209863728629</v>
+        <v>0.000560564285441509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H8">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I8">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J8">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N8">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O8">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P8">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q8">
-        <v>222.8221410758008</v>
+        <v>248.0576575685072</v>
       </c>
       <c r="R8">
-        <v>222.8221410758008</v>
+        <v>1488.345945411043</v>
       </c>
       <c r="S8">
-        <v>0.1171379759610127</v>
+        <v>0.11643616307149</v>
       </c>
       <c r="T8">
-        <v>0.1171379759610127</v>
+        <v>0.1065643854291046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H9">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I9">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J9">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N9">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O9">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P9">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q9">
-        <v>89.88750853431931</v>
+        <v>105.5101431456483</v>
       </c>
       <c r="R9">
-        <v>89.88750853431931</v>
+        <v>949.5912883108349</v>
       </c>
       <c r="S9">
-        <v>0.04725401507701396</v>
+        <v>0.04952556737584326</v>
       </c>
       <c r="T9">
-        <v>0.04725401507701396</v>
+        <v>0.06798998066254618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H10">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I10">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J10">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N10">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O10">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P10">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q10">
-        <v>73.30494517428583</v>
+        <v>85.66009976440999</v>
       </c>
       <c r="R10">
-        <v>73.30494517428583</v>
+        <v>770.9408978796901</v>
       </c>
       <c r="S10">
-        <v>0.03853653350690921</v>
+        <v>0.04020812516998955</v>
       </c>
       <c r="T10">
-        <v>0.03853653350690921</v>
+        <v>0.05519875485804626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H11">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I11">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J11">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N11">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O11">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P11">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q11">
-        <v>90.37225898399984</v>
+        <v>103.5563371703981</v>
       </c>
       <c r="R11">
-        <v>90.37225898399984</v>
+        <v>932.0070345335829</v>
       </c>
       <c r="S11">
-        <v>0.04750884920726518</v>
+        <v>0.04860846740249751</v>
       </c>
       <c r="T11">
-        <v>0.04750884920726518</v>
+        <v>0.06673096208371385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H12">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I12">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J12">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N12">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O12">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P12">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q12">
-        <v>199.3724262232667</v>
+        <v>224.5029450601479</v>
       </c>
       <c r="R12">
-        <v>199.3724262232667</v>
+        <v>2020.526505541331</v>
       </c>
       <c r="S12">
-        <v>0.1048104212511138</v>
+        <v>0.1053797805610329</v>
       </c>
       <c r="T12">
-        <v>0.1048104212511138</v>
+        <v>0.1446680900835615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H13">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I13">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J13">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N13">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O13">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P13">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q13">
-        <v>16.20312783022213</v>
+        <v>19.70604203045717</v>
       </c>
       <c r="R13">
-        <v>16.20312783022213</v>
+        <v>118.236252182743</v>
       </c>
       <c r="S13">
-        <v>0.008518011671129685</v>
+        <v>0.009249849191687481</v>
       </c>
       <c r="T13">
-        <v>0.008518011671129685</v>
+        <v>0.00846562157685383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H14">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I14">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J14">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N14">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O14">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P14">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q14">
-        <v>15.38135604004764</v>
+        <v>6.613818918379335</v>
       </c>
       <c r="R14">
-        <v>15.38135604004764</v>
+        <v>39.682913510276</v>
       </c>
       <c r="S14">
-        <v>0.008086004852874798</v>
+        <v>0.003104470572100936</v>
       </c>
       <c r="T14">
-        <v>0.008086004852874798</v>
+        <v>0.002841265032029226</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H15">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I15">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J15">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N15">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O15">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P15">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q15">
-        <v>6.204911978872193</v>
+        <v>2.813156375246666</v>
       </c>
       <c r="R15">
-        <v>6.204911978872193</v>
+        <v>25.31840737722</v>
       </c>
       <c r="S15">
-        <v>0.003261932708805961</v>
+        <v>0.001320471771218595</v>
       </c>
       <c r="T15">
-        <v>0.003261932708805961</v>
+        <v>0.001812777822599589</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H16">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I16">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J16">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N16">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O16">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P16">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q16">
-        <v>5.060221824357632</v>
+        <v>2.28390606412</v>
       </c>
       <c r="R16">
-        <v>5.060221824357632</v>
+        <v>20.55515457708</v>
       </c>
       <c r="S16">
-        <v>0.002660167160934664</v>
+        <v>0.00107204615865728</v>
       </c>
       <c r="T16">
-        <v>0.002660167160934664</v>
+        <v>0.001471732712183276</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H17">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I17">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J17">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N17">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O17">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P17">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q17">
-        <v>6.238374179805685</v>
+        <v>2.761063168172889</v>
       </c>
       <c r="R17">
-        <v>6.238374179805685</v>
+        <v>24.849568513556</v>
       </c>
       <c r="S17">
-        <v>0.003279523844361994</v>
+        <v>0.001296019661119619</v>
       </c>
       <c r="T17">
-        <v>0.003279523844361994</v>
+        <v>0.00177920933301175</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H18">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I18">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J18">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N18">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O18">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P18">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q18">
-        <v>13.76262815491472</v>
+        <v>5.98579314109911</v>
       </c>
       <c r="R18">
-        <v>13.76262815491472</v>
+        <v>53.872138269892</v>
       </c>
       <c r="S18">
-        <v>0.007235036869259485</v>
+        <v>0.002809680592491844</v>
       </c>
       <c r="T18">
-        <v>0.007235036869259485</v>
+        <v>0.003857202234590233</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H19">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I19">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J19">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N19">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O19">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P19">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q19">
-        <v>1.11849781586233</v>
+        <v>0.5254108857793334</v>
       </c>
       <c r="R19">
-        <v>1.11849781586233</v>
+        <v>3.152465314676</v>
       </c>
       <c r="S19">
-        <v>0.0005879961911969793</v>
+        <v>0.0002466234188285156</v>
       </c>
       <c r="T19">
-        <v>0.0005879961911969793</v>
+        <v>0.0002257140081449536</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H20">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I20">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J20">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N20">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O20">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P20">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q20">
-        <v>34.62441515770973</v>
+        <v>16.67612866395934</v>
       </c>
       <c r="R20">
-        <v>34.62441515770973</v>
+        <v>100.056771983756</v>
       </c>
       <c r="S20">
-        <v>0.01820211353694959</v>
+        <v>0.007827633525006856</v>
       </c>
       <c r="T20">
-        <v>0.01820211353694959</v>
+        <v>0.007163985259841123</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H21">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I21">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J21">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N21">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O21">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P21">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q21">
-        <v>13.96765329494652</v>
+        <v>7.093111898646666</v>
       </c>
       <c r="R21">
-        <v>13.96765329494652</v>
+        <v>63.83800708782</v>
       </c>
       <c r="S21">
-        <v>0.007342818931708473</v>
+        <v>0.003329446636764512</v>
       </c>
       <c r="T21">
-        <v>0.007342818931708473</v>
+        <v>0.004570750512209436</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H22">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I22">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J22">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N22">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O22">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P22">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q22">
-        <v>11.390882623124</v>
+        <v>5.758656511720001</v>
       </c>
       <c r="R22">
-        <v>11.390882623124</v>
+        <v>51.82790860548</v>
       </c>
       <c r="S22">
-        <v>0.005988206236777455</v>
+        <v>0.002703064582822436</v>
       </c>
       <c r="T22">
-        <v>0.005988206236777455</v>
+        <v>0.003710837017191904</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H23">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I23">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J23">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N23">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O23">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P23">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q23">
-        <v>14.04297884714071</v>
+        <v>6.961763726826222</v>
       </c>
       <c r="R23">
-        <v>14.04297884714071</v>
+        <v>62.65587354143599</v>
       </c>
       <c r="S23">
-        <v>0.007382417701739008</v>
+        <v>0.003267792917612529</v>
       </c>
       <c r="T23">
-        <v>0.007382417701739008</v>
+        <v>0.004486110690900455</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H24">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I24">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J24">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N24">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O24">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P24">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q24">
-        <v>30.98055526809559</v>
+        <v>15.09262013500578</v>
       </c>
       <c r="R24">
-        <v>30.98055526809559</v>
+        <v>135.833581215052</v>
       </c>
       <c r="S24">
-        <v>0.01628653023766824</v>
+        <v>0.007084348036021654</v>
       </c>
       <c r="T24">
-        <v>0.01628653023766824</v>
+        <v>0.009725576333544388</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H25">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I25">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J25">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.63478981295333</v>
+        <v>1.7870065</v>
       </c>
       <c r="N25">
-        <v>1.63478981295333</v>
+        <v>3.574013</v>
       </c>
       <c r="O25">
-        <v>0.02341619667060394</v>
+        <v>0.02503965906056977</v>
       </c>
       <c r="P25">
-        <v>0.02341619667060394</v>
+        <v>0.01882848427433487</v>
       </c>
       <c r="Q25">
-        <v>2.517810044093417</v>
+        <v>1.324774633359333</v>
       </c>
       <c r="R25">
-        <v>2.517810044093417</v>
+        <v>7.948647800156</v>
       </c>
       <c r="S25">
-        <v>0.001323616993335863</v>
+        <v>0.0006218379902269307</v>
       </c>
       <c r="T25">
-        <v>0.001323616993335863</v>
+        <v>0.0005691168578297818</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H26">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I26">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J26">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.4812992989993</v>
+        <v>22.4946565</v>
       </c>
       <c r="N26">
-        <v>22.4812992989993</v>
+        <v>44.989313</v>
       </c>
       <c r="O26">
-        <v>0.3220148068118078</v>
+        <v>0.3151966875580082</v>
       </c>
       <c r="P26">
-        <v>0.3220148068118078</v>
+        <v>0.2370110495774999</v>
       </c>
       <c r="Q26">
-        <v>315.250832767706</v>
+        <v>40.77470665994117</v>
       </c>
       <c r="R26">
-        <v>315.250832767706</v>
+        <v>244.648239959647</v>
       </c>
       <c r="S26">
-        <v>0.1657278953166081</v>
+        <v>0.01913930188806165</v>
       </c>
       <c r="T26">
-        <v>0.1657278953166081</v>
+        <v>0.01751661931689666</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H27">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I27">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J27">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9.06906276389268</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N27">
-        <v>9.06906276389268</v>
+        <v>28.703985</v>
       </c>
       <c r="O27">
-        <v>0.1299023003536568</v>
+        <v>0.1340674097678079</v>
       </c>
       <c r="P27">
-        <v>0.1299023003536568</v>
+        <v>0.1512172815776674</v>
       </c>
       <c r="Q27">
-        <v>127.173681143377</v>
+        <v>17.34332726746833</v>
       </c>
       <c r="R27">
-        <v>127.173681143377</v>
+        <v>156.089945407215</v>
       </c>
       <c r="S27">
-        <v>0.06685541900245315</v>
+        <v>0.00814081089739976</v>
       </c>
       <c r="T27">
-        <v>0.06685541900245315</v>
+        <v>0.01117591589191219</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H28">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I28">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J28">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.3959903831964</v>
+        <v>7.76793</v>
       </c>
       <c r="N28">
-        <v>7.3959903831964</v>
+        <v>23.30379</v>
       </c>
       <c r="O28">
-        <v>0.1059377566550608</v>
+        <v>0.108844774099239</v>
       </c>
       <c r="P28">
-        <v>0.1059377566550608</v>
+        <v>0.1227681722331178</v>
       </c>
       <c r="Q28">
-        <v>103.712516631474</v>
+        <v>14.08045804589</v>
       </c>
       <c r="R28">
-        <v>103.712516631474</v>
+        <v>126.72412241301</v>
       </c>
       <c r="S28">
-        <v>0.05452184518728297</v>
+        <v>0.006609247725802379</v>
       </c>
       <c r="T28">
-        <v>0.05452184518728297</v>
+        <v>0.009073346331625541</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H29">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I29">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J29">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.1179709194825</v>
+        <v>9.390817666666665</v>
       </c>
       <c r="N29">
-        <v>9.1179709194825</v>
+        <v>28.172453</v>
       </c>
       <c r="O29">
-        <v>0.1306028448401794</v>
+        <v>0.1315847886805721</v>
       </c>
       <c r="P29">
-        <v>0.1306028448401794</v>
+        <v>0.1484170841795869</v>
       </c>
       <c r="Q29">
-        <v>127.8595105775997</v>
+        <v>17.02216860503411</v>
       </c>
       <c r="R29">
-        <v>127.8595105775997</v>
+        <v>153.199517445307</v>
       </c>
       <c r="S29">
-        <v>0.06721596069454649</v>
+        <v>0.00799006174191084</v>
       </c>
       <c r="T29">
-        <v>0.06721596069454649</v>
+        <v>0.01096896354972487</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H30">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I30">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J30">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>20.115376166178</v>
+        <v>20.35864033333333</v>
       </c>
       <c r="N30">
-        <v>20.115376166178</v>
+        <v>61.07592099999999</v>
       </c>
       <c r="O30">
-        <v>0.2881260946686912</v>
+        <v>0.2852666808338029</v>
       </c>
       <c r="P30">
-        <v>0.2881260946686912</v>
+        <v>0.3217579281577931</v>
       </c>
       <c r="Q30">
-        <v>282.0739586036983</v>
+        <v>36.90287902759989</v>
       </c>
       <c r="R30">
-        <v>282.0739586036983</v>
+        <v>332.125911248399</v>
       </c>
       <c r="S30">
-        <v>0.1482867565252748</v>
+        <v>0.01732189879717144</v>
       </c>
       <c r="T30">
-        <v>0.1482867565252748</v>
+        <v>0.02377995097604301</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.812639666666667</v>
+      </c>
+      <c r="H31">
+        <v>5.437919000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.06072177355778616</v>
+      </c>
+      <c r="J31">
+        <v>0.07390634043485356</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.7870065</v>
+      </c>
+      <c r="N31">
+        <v>3.574013</v>
+      </c>
+      <c r="O31">
+        <v>0.02503965906056977</v>
+      </c>
+      <c r="P31">
+        <v>0.01882848427433487</v>
+      </c>
+      <c r="Q31">
+        <v>3.239198866491167</v>
+      </c>
+      <c r="R31">
+        <v>19.435193198947</v>
+      </c>
+      <c r="S31">
+        <v>0.001520452507440086</v>
+      </c>
+      <c r="T31">
+        <v>0.001391544368651279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>14.880867</v>
+      </c>
+      <c r="H32">
+        <v>29.761734</v>
+      </c>
+      <c r="I32">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J32">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>22.4946565</v>
+      </c>
+      <c r="N32">
+        <v>44.989313</v>
+      </c>
+      <c r="O32">
+        <v>0.3151966875580082</v>
+      </c>
+      <c r="P32">
+        <v>0.2370110495774999</v>
+      </c>
+      <c r="Q32">
+        <v>334.7399915871855</v>
+      </c>
+      <c r="R32">
+        <v>1338.959966348742</v>
+      </c>
+      <c r="S32">
+        <v>0.1571241163406963</v>
+      </c>
+      <c r="T32">
+        <v>0.09586846819320775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14.880867</v>
+      </c>
+      <c r="H33">
+        <v>29.761734</v>
+      </c>
+      <c r="I33">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J33">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>9.567994999999998</v>
+      </c>
+      <c r="N33">
+        <v>28.703985</v>
+      </c>
+      <c r="O33">
+        <v>0.1340674097678079</v>
+      </c>
+      <c r="P33">
+        <v>0.1512172815776674</v>
+      </c>
+      <c r="Q33">
+        <v>142.380061051665</v>
+      </c>
+      <c r="R33">
+        <v>854.2803663099897</v>
+      </c>
+      <c r="S33">
+        <v>0.06683199450176977</v>
+      </c>
+      <c r="T33">
+        <v>0.06116579448525502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>14.880867</v>
+      </c>
+      <c r="H34">
+        <v>29.761734</v>
+      </c>
+      <c r="I34">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J34">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>7.76793</v>
+      </c>
+      <c r="N34">
+        <v>23.30379</v>
+      </c>
+      <c r="O34">
+        <v>0.108844774099239</v>
+      </c>
+      <c r="P34">
+        <v>0.1227681722331178</v>
+      </c>
+      <c r="Q34">
+        <v>115.59353319531</v>
+      </c>
+      <c r="R34">
+        <v>693.5611991718599</v>
+      </c>
+      <c r="S34">
+        <v>0.05425862524490581</v>
+      </c>
+      <c r="T34">
+        <v>0.04965843000083581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.880867</v>
+      </c>
+      <c r="H35">
+        <v>29.761734</v>
+      </c>
+      <c r="I35">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J35">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>9.390817666666665</v>
+      </c>
+      <c r="N35">
+        <v>28.172453</v>
+      </c>
+      <c r="O35">
+        <v>0.1315847886805721</v>
+      </c>
+      <c r="P35">
+        <v>0.1484170841795869</v>
+      </c>
+      <c r="Q35">
+        <v>139.743508718917</v>
+      </c>
+      <c r="R35">
+        <v>838.4610523135018</v>
+      </c>
+      <c r="S35">
+        <v>0.06559441917201975</v>
+      </c>
+      <c r="T35">
+        <v>0.06003314419038006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>14.022803067336</v>
-      </c>
-      <c r="H31">
-        <v>14.022803067336</v>
-      </c>
-      <c r="I31">
-        <v>0.5146592386773783</v>
-      </c>
-      <c r="J31">
-        <v>0.5146592386773783</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.63478981295333</v>
-      </c>
-      <c r="N31">
-        <v>1.63478981295333</v>
-      </c>
-      <c r="O31">
-        <v>0.02341619667060394</v>
-      </c>
-      <c r="P31">
-        <v>0.02341619667060394</v>
-      </c>
-      <c r="Q31">
-        <v>22.9243356035316</v>
-      </c>
-      <c r="R31">
-        <v>22.9243356035316</v>
-      </c>
-      <c r="S31">
-        <v>0.01205136195121278</v>
-      </c>
-      <c r="T31">
-        <v>0.01205136195121278</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14.880867</v>
+      </c>
+      <c r="H36">
+        <v>29.761734</v>
+      </c>
+      <c r="I36">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J36">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>20.35864033333333</v>
+      </c>
+      <c r="N36">
+        <v>61.07592099999999</v>
+      </c>
+      <c r="O36">
+        <v>0.2852666808338029</v>
+      </c>
+      <c r="P36">
+        <v>0.3217579281577931</v>
+      </c>
+      <c r="Q36">
+        <v>302.9542191011689</v>
+      </c>
+      <c r="R36">
+        <v>1817.725314607014</v>
+      </c>
+      <c r="S36">
+        <v>0.1422041440051799</v>
+      </c>
+      <c r="T36">
+        <v>0.1301476861795904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14.880867</v>
+      </c>
+      <c r="H37">
+        <v>29.761734</v>
+      </c>
+      <c r="I37">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J37">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.7870065</v>
+      </c>
+      <c r="N37">
+        <v>3.574013</v>
+      </c>
+      <c r="O37">
+        <v>0.02503965906056977</v>
+      </c>
+      <c r="P37">
+        <v>0.01882848427433487</v>
+      </c>
+      <c r="Q37">
+        <v>26.5922060546355</v>
+      </c>
+      <c r="R37">
+        <v>106.368824218542</v>
+      </c>
+      <c r="S37">
+        <v>0.01248215624931105</v>
+      </c>
+      <c r="T37">
+        <v>0.007615923177413512</v>
       </c>
     </row>
   </sheetData>
